--- a/biology/Botanique/Jardin_botanique_de_la_Roche_Fauconnière/Jardin_botanique_de_la_Roche_Fauconnière.xlsx
+++ b/biology/Botanique/Jardin_botanique_de_la_Roche_Fauconnière/Jardin_botanique_de_la_Roche_Fauconnière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_botanique_de_la_Roche_Fauconni%C3%A8re</t>
+          <t>Jardin_botanique_de_la_Roche_Fauconnière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin botanique de la Roche Fauconnière, également appelé jardin Favier, est un parc paysager situé à Cherbourg-en-Cotentin, en France.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_botanique_de_la_Roche_Fauconni%C3%A8re</t>
+          <t>Jardin_botanique_de_la_Roche_Fauconnière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc est situé dans le département français de la Manche, à l'ouest du bourg d'Octeville, ancienne commune intégrée en 2000 à la commune de Cherbourg-Octeville, elle-même devenue en 2016 commune déléguée de la commune nouvelle de Cherbourg-en-Cotentin. Il occupe une hauteur rocheuse dominant la vallée de la Divette.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardin_botanique_de_la_Roche_Fauconni%C3%A8re</t>
+          <t>Jardin_botanique_de_la_Roche_Fauconnière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -551,7 +567,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jardin_botanique_de_la_Roche_Fauconni%C3%A8re</t>
+          <t>Jardin_botanique_de_la_Roche_Fauconnière</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -570,6 +586,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -577,7 +595,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jardin_botanique_de_la_Roche_Fauconni%C3%A8re</t>
+          <t>Jardin_botanique_de_la_Roche_Fauconnière</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -595,9 +613,11 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin botanique est inscrit au titre des monuments historiques par arrêté du 29 décembre 1978[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin botanique est inscrit au titre des monuments historiques par arrêté du 29 décembre 1978.
 </t>
         </is>
       </c>
